--- a/Output/INTLStatusReport.xlsx
+++ b/Output/INTLStatusReport.xlsx
@@ -1394,7 +1394,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="47" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1416,7 +1416,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1433,7 +1433,7 @@
         <v>23</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1455,7 +1455,7 @@
         <v>19</v>
       </c>
       <c r="E21" s="47" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1472,7 +1472,7 @@
         <v>28</v>
       </c>
       <c r="E22" s="47" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1494,7 +1494,7 @@
         <v>30</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="25" s="10" spans="1:5">
@@ -1516,7 +1516,7 @@
         <v>35</v>
       </c>
       <c r="E26" s="47" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1555,7 +1555,7 @@
         <v>41</v>
       </c>
       <c r="E29" s="47" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1577,7 +1577,7 @@
         <v>43</v>
       </c>
       <c r="E31" s="47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1629,7 +1629,7 @@
         <v>51</v>
       </c>
       <c r="E35" s="47" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1651,7 +1651,7 @@
         <v>53</v>
       </c>
       <c r="E37" s="47" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="38" s="10" spans="1:5">
@@ -1695,7 +1695,7 @@
         <v>60</v>
       </c>
       <c r="E41" s="47" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1734,7 +1734,7 @@
         <v>66</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1751,7 +1751,7 @@
         <v>35</v>
       </c>
       <c r="E45" s="47" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1773,7 +1773,7 @@
         <v>65</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="48" s="10" spans="1:5">
@@ -1790,7 +1790,7 @@
         <v>51</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="49" s="10" spans="1:5">
@@ -1812,7 +1812,7 @@
         <v>74</v>
       </c>
       <c r="E50" s="47" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="51" s="10" spans="1:5">
@@ -1868,7 +1868,7 @@
         <v>51</v>
       </c>
       <c r="E54" s="47" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="55" s="10" spans="1:5">
@@ -1890,7 +1890,7 @@
         <v>84</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="57" s="10" spans="1:5">
@@ -1907,7 +1907,7 @@
         <v>35</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="58" s="10" spans="1:5">
@@ -1946,7 +1946,7 @@
         <v>35</v>
       </c>
       <c r="E60" s="47" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="61" s="10" spans="1:5">
@@ -2009,7 +2009,7 @@
         <v>79</v>
       </c>
       <c r="E65" s="47" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="66" s="10" spans="1:5">
@@ -2026,7 +2026,7 @@
         <v>100</v>
       </c>
       <c r="E66" s="47" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="67" s="10" spans="1:5">
@@ -2081,7 +2081,7 @@
         <v>107</v>
       </c>
       <c r="E70" s="47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="71" s="10" spans="1:5">
@@ -2230,7 +2230,7 @@
         <v>100</v>
       </c>
       <c r="E82" s="47" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2252,7 +2252,7 @@
         <v>128</v>
       </c>
       <c r="E84" s="47" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2315,7 +2315,7 @@
         <v>137</v>
       </c>
       <c r="E92" s="47" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="93" s="10" spans="1:5">
@@ -2332,7 +2332,7 @@
         <v>139</v>
       </c>
       <c r="E93" s="47" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="94" s="10" spans="1:5">
@@ -2349,7 +2349,7 @@
         <v>141</v>
       </c>
       <c r="E94" s="47" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="95" s="10" spans="1:5">
@@ -2366,7 +2366,7 @@
         <v>143</v>
       </c>
       <c r="E95" s="47" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="96" s="10" spans="1:5">
@@ -2383,7 +2383,7 @@
         <v>145</v>
       </c>
       <c r="E96" s="47" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="97" s="10" spans="1:5">
@@ -2492,7 +2492,7 @@
         <v>157</v>
       </c>
       <c r="E105" s="47" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2514,7 +2514,7 @@
         <v>160</v>
       </c>
       <c r="E107" s="47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2528,7 +2528,7 @@
         <v>162</v>
       </c>
       <c r="E108" s="47" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2542,7 +2542,7 @@
         <v>162</v>
       </c>
       <c r="E109" s="47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2556,7 +2556,7 @@
         <v>162</v>
       </c>
       <c r="E110" s="47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2570,7 +2570,7 @@
         <v>162</v>
       </c>
       <c r="E111" s="47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="112" s="10" spans="1:5">
@@ -2587,7 +2587,7 @@
         <v>103</v>
       </c>
       <c r="E112" s="47" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="113" s="10" spans="1:5">
@@ -2604,7 +2604,7 @@
         <v>170</v>
       </c>
       <c r="E113" s="47" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:5">
